--- a/Data/Processed/Angiosperms/missing_powo_ipni/Acanthaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Acanthaceae.xlsx
@@ -707,7 +707,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -9848,7 +9848,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -11696,7 +11696,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -15854,7 +15854,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -16107,7 +16107,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -16580,7 +16580,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -17713,7 +17713,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -18351,7 +18351,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -18549,7 +18549,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -18692,7 +18692,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -20155,7 +20155,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -22256,7 +22256,7 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -23279,7 +23279,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -23587,7 +23587,7 @@
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -24115,7 +24115,7 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -26788,7 +26788,7 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33036,7 +33036,7 @@
       </c>
       <c r="G580" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
@@ -35819,7 +35819,7 @@
       </c>
       <c r="G630" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
@@ -36127,7 +36127,7 @@
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
@@ -37425,7 +37425,7 @@
       </c>
       <c r="G658" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
@@ -37678,7 +37678,7 @@
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
@@ -39746,7 +39746,7 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -40659,7 +40659,7 @@
       </c>
       <c r="G715" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H715" t="inlineStr">
@@ -40669,7 +40669,7 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ill. Hort. 33: 11, pl. 583. 1886 </t>
+          <t>Ill. Hort. 33: 11, pl. 583. 1886</t>
         </is>
       </c>
       <c r="J715" t="b">
@@ -40737,7 +40737,7 @@
       </c>
       <c r="G716" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H716" t="inlineStr">
@@ -40747,7 +40747,7 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 535. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 535. 1911</t>
         </is>
       </c>
       <c r="J716" t="b">
@@ -40815,7 +40815,7 @@
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H717" t="inlineStr">
@@ -40825,7 +40825,7 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 9: 60. 1847 [1 Jun 1847] </t>
+          <t>Fl. Bras. (Martius) 9: 60. 1847 [1 Jun 1847]</t>
         </is>
       </c>
       <c r="J717" t="b">
@@ -40893,7 +40893,7 @@
       </c>
       <c r="G718" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H718" t="inlineStr">
@@ -40903,7 +40903,7 @@
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arch. Jard. Bot. Rio de Janeiro 9:[110], fig. 1950 </t>
+          <t>Arch. Jard. Bot. Rio de Janeiro 9:[110], fig. 1950</t>
         </is>
       </c>
       <c r="J718" t="b">
@@ -40971,7 +40971,7 @@
       </c>
       <c r="G719" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H719" t="inlineStr">
@@ -40981,7 +40981,7 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 537. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 537. 1911</t>
         </is>
       </c>
       <c r="J719" t="b">
@@ -41049,7 +41049,7 @@
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H720" t="inlineStr">
@@ -41059,7 +41059,7 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 538. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 538. 1911</t>
         </is>
       </c>
       <c r="J720" t="b">
@@ -41127,7 +41127,7 @@
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H721" t="inlineStr">
@@ -41137,7 +41137,7 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 539. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 539. 1911</t>
         </is>
       </c>
       <c r="J721" t="b">
@@ -41205,7 +41205,7 @@
       </c>
       <c r="G722" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H722" t="inlineStr">
@@ -41215,7 +41215,7 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Herb. Boissier ser. 2, 4: 405. 1904 </t>
+          <t>Bull. Herb. Boissier ser. 2, 4: 405. 1904</t>
         </is>
       </c>
       <c r="J722" t="b">
@@ -41283,7 +41283,7 @@
       </c>
       <c r="G723" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H723" t="inlineStr">
@@ -41293,7 +41293,7 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 8: 246. 1922 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 8: 246. 1922</t>
         </is>
       </c>
       <c r="J723" t="b">
@@ -41361,7 +41361,7 @@
       </c>
       <c r="G724" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H724" t="inlineStr">
@@ -41371,7 +41371,7 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 531. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 531. 1911</t>
         </is>
       </c>
       <c r="J724" t="b">
@@ -41439,7 +41439,7 @@
       </c>
       <c r="G725" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H725" t="inlineStr">
@@ -41449,7 +41449,7 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t xml:space="preserve">Syst. Veg., ed. 16 [Sprengel] 2: 806. 1825 [Jan-May 1825] </t>
+          <t>Syst. Veg., ed. 16 [Sprengel] 2: 806. 1825 [Jan-May 1825]</t>
         </is>
       </c>
       <c r="J725" t="b">
@@ -41517,7 +41517,7 @@
       </c>
       <c r="G726" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H726" t="inlineStr">
@@ -41527,7 +41527,7 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t xml:space="preserve">Syst. Veg., ed. 16 [Sprengel] 2: 808. 1825 [Jan-May 1825] </t>
+          <t>Syst. Veg., ed. 16 [Sprengel] 2: 808. 1825 [Jan-May 1825]</t>
         </is>
       </c>
       <c r="J726" t="b">
@@ -41595,7 +41595,7 @@
       </c>
       <c r="G727" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H727" t="inlineStr">
@@ -41673,7 +41673,7 @@
       </c>
       <c r="G728" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H728" t="inlineStr">
@@ -41683,7 +41683,7 @@
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Herb. Boissier 3: 486. 1895 </t>
+          <t>Bull. Herb. Boissier 3: 486. 1895</t>
         </is>
       </c>
       <c r="J728" t="b">
@@ -41751,7 +41751,7 @@
       </c>
       <c r="G729" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H729" t="inlineStr">
@@ -41761,7 +41761,7 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 537. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 537. 1911</t>
         </is>
       </c>
       <c r="J729" t="b">
@@ -41829,7 +41829,7 @@
       </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H730" t="inlineStr">
@@ -41839,7 +41839,7 @@
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 537. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 537. 1911</t>
         </is>
       </c>
       <c r="J730" t="b">
@@ -41907,7 +41907,7 @@
       </c>
       <c r="G731" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H731" t="inlineStr">
@@ -41917,7 +41917,7 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 538. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 538. 1911</t>
         </is>
       </c>
       <c r="J731" t="b">
@@ -41985,7 +41985,7 @@
       </c>
       <c r="G732" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H732" t="inlineStr">
@@ -41995,7 +41995,7 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. U.S. Natl. Herb. 31: 508, fig. 189. 1958 </t>
+          <t>Contr. U.S. Natl. Herb. 31: 508, fig. 189. 1958</t>
         </is>
       </c>
       <c r="J732" t="b">
@@ -42063,7 +42063,7 @@
       </c>
       <c r="G733" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H733" t="inlineStr">
@@ -42073,7 +42073,7 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 536. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 536. 1911</t>
         </is>
       </c>
       <c r="J733" t="b">
@@ -42141,7 +42141,7 @@
       </c>
       <c r="G734" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H734" t="inlineStr">
@@ -42151,7 +42151,7 @@
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. U.S. Natl. Herb. 31: 517, fig. 192. 1958 </t>
+          <t>Contr. U.S. Natl. Herb. 31: 517, fig. 192. 1958</t>
         </is>
       </c>
       <c r="J734" t="b">
@@ -42219,7 +42219,7 @@
       </c>
       <c r="G735" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H735" t="inlineStr">
@@ -42229,7 +42229,7 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Herb. Boissier 3: 482. 1895 </t>
+          <t>Bull. Herb. Boissier 3: 482. 1895</t>
         </is>
       </c>
       <c r="J735" t="b">
@@ -42297,7 +42297,7 @@
       </c>
       <c r="G736" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H736" t="inlineStr">
@@ -42307,7 +42307,7 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 536. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 536. 1911</t>
         </is>
       </c>
       <c r="J736" t="b">
@@ -42375,7 +42375,7 @@
       </c>
       <c r="G737" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H737" t="inlineStr">
@@ -42385,7 +42385,7 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Königl. Bot. Gart. Berlin 6: 195. 1914 </t>
+          <t>Notizbl. Königl. Bot. Gart. Berlin 6: 195. 1914</t>
         </is>
       </c>
       <c r="J737" t="b">
@@ -42453,7 +42453,7 @@
       </c>
       <c r="G738" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H738" t="inlineStr">
@@ -42463,7 +42463,7 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. U.S. Natl. Herb. 31: 674. 1958 </t>
+          <t>Contr. U.S. Natl. Herb. 31: 674. 1958</t>
         </is>
       </c>
       <c r="J738" t="b">
@@ -42531,7 +42531,7 @@
       </c>
       <c r="G739" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H739" t="inlineStr">
@@ -42541,7 +42541,7 @@
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arch. Jard. Bot. Rio de Janeiro 9: 59. 1950 </t>
+          <t>Arch. Jard. Bot. Rio de Janeiro 9: 59. 1950</t>
         </is>
       </c>
       <c r="J739" t="b">
@@ -42609,7 +42609,7 @@
       </c>
       <c r="G740" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H740" t="inlineStr">
@@ -42619,7 +42619,7 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 532. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 532. 1911</t>
         </is>
       </c>
       <c r="J740" t="b">
@@ -42687,7 +42687,7 @@
       </c>
       <c r="G741" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H741" t="inlineStr">
@@ -42697,7 +42697,7 @@
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Königl. Bot. Gart. Berlin 6: 194. 1914 </t>
+          <t>Notizbl. Königl. Bot. Gart. Berlin 6: 194. 1914</t>
         </is>
       </c>
       <c r="J741" t="b">
@@ -42765,7 +42765,7 @@
       </c>
       <c r="G742" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H742" t="inlineStr">
@@ -42775,7 +42775,7 @@
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Herb. Boissier ser. 2, 5: 367. 1905 </t>
+          <t>Bull. Herb. Boissier ser. 2, 5: 367. 1905</t>
         </is>
       </c>
       <c r="J742" t="b">
@@ -42843,7 +42843,7 @@
       </c>
       <c r="G743" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H743" t="inlineStr">
@@ -42853,7 +42853,7 @@
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Herb. Boissier 5: 654. 1897 </t>
+          <t>Bull. Herb. Boissier 5: 654. 1897</t>
         </is>
       </c>
       <c r="J743" t="b">
@@ -42921,7 +42921,7 @@
       </c>
       <c r="G744" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H744" t="inlineStr">
@@ -42931,7 +42931,7 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Herb. Boissier ser. 2, 4: 320. 1904 </t>
+          <t>Bull. Herb. Boissier ser. 2, 4: 320. 1904</t>
         </is>
       </c>
       <c r="J744" t="b">
@@ -42999,7 +42999,7 @@
       </c>
       <c r="G745" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H745" t="inlineStr">
@@ -43009,7 +43009,7 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 533. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 533. 1911</t>
         </is>
       </c>
       <c r="J745" t="b">
@@ -43077,7 +43077,7 @@
       </c>
       <c r="G746" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H746" t="inlineStr">
@@ -43087,7 +43087,7 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t xml:space="preserve">J. Bot. 42: 33. 1904 </t>
+          <t>J. Bot. 42: 33. 1904</t>
         </is>
       </c>
       <c r="J746" t="b">
